--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23775" yWindow="2175" windowWidth="21600" windowHeight="12735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -72,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,16 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="113.28515625" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -502,6 +489,7 @@
           <t>znikała, na, krótko, na, dwie</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>5/3</t>
@@ -530,6 +518,7 @@
           <t>rozdział, 13, w, końcu</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>4/3</t>
@@ -558,6 +547,7 @@
           <t>najprzód, zapalała, lampkę, nocną, siadała</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>5/3</t>
@@ -1027,6 +1017,576 @@
       </c>
       <c r="G18" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nocną, najprzód, lampkę, siadała, zapalała</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>znikała, dwie, krótko, na</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ojca, chrapania, oprócz, śpiew, neurotyzm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>na, krótko</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>znikała, dwie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13, w, rozdział, końcu</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dwie, na</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>znikała, krótko</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>szydło, z, worka, Ola, na</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>na, Ola</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>worka, szydło, z</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>końcu, w</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13, rozdział</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>końcu, w</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13, rozdział</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>końcu, rozdział, w</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>końcu, w</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13, rozdział</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>końcu, w</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13, rozdział</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>szydło, z, worka, Ola, na</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>worka, szydło, Ola, na</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>w, końcu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13, rozdział</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>w, końcu, rozdział</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13, w, końcu, rozdział</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13, w, końcu, rozdział</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13, rozdział</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>w, końcu</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ojca</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>neurotyzm, oprócz, chrapania, śpiew</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1622,6 +1622,130 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>zapalała</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>lampkę, najprzód, siadała, nocną</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ojca</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>neurotyzm, śpiew, chrapania, oprócz</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>lampkę, najprzód, zapalała, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, dwie</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,6 +1746,569 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>siadała, najprzód, lampkę, zapalała, nocną</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>siadała, najprzód, lampkę, zapalała, nocną</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>krótko, znikała, na, dwie</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>rozdział</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>końcu, 13, w</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>śpiew, chrapania, ojca, oprócz, neurotyzm</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>śpiew, chrapania, ojca, oprócz, neurotyzm</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>lampkę, najprzód, siadała, zapalała, nocną</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>lampkę, najprzód, siadała, zapalała, nocną</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>dwie, na</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>znikała, krótko</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>dwie, znikała, na, krótko</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>dwie</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>szydło, z, worka, Ola, na</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Ola, szydło, na, worka, z</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>na, dwie, krótko, znikała</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>dwie, znikała, krótko, na</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>szydło, z, worka, Ola, na</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>worka, z, na, szydło, Ola</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>szydło, z, worka, Ola, na</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>na, worka, Ola, szydło, z</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>znikała, na, krótko, na, dwie</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>dwie, znikała, krótko, na</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ojca, oprócz, śpiew, chrapania, neurotyzm</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_5.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ojca, oprócz, śpiew, chrapania, neurotyzm</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,27 +476,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 3, ., w, a, v</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2, /, 5</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>zasady, pięknym, Przykładem, zastosowania</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>zachowania</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -505,27 +509,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 1, ., w, a, v</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>zasady, pięknym, Przykładem, zastosowania</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>zachowania</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -534,27 +542,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 4, ., w, a, v</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+          <t>zastosowania, Przykładem, zasady, pięknym, zachowania</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -563,31 +571,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 6, ., w, a, v</t>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0, /, 1</t>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>mamrota</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>mam, latania</t>
-        </is>
-      </c>
+          <t>pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -596,31 +600,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:/python projekty/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_2.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2, /, 5</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>szydło, z, worka, Ola, na</t>
+          <t>jest, rozwiązaniem, taki</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2, /, 5</t>
+          <t>podstawowego, problemu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -629,31 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:/python projekty/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_3.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2, /, 5</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2, /, 5</t>
-        </is>
-      </c>
+          <t>zachowania, Przykładem, zasady, zastosowania, pięknym</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -662,31 +662,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:/python projekty/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_3.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0, /, 5</t>
-        </is>
-      </c>
+          <t>rakietowy, jest, napęd, pędu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -695,31 +691,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:/github/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_2.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>szydło, z, worka, Ola, na</t>
+          <t>taki, jest</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>podstawowego, rozwiązaniem, problemu</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -728,31 +724,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:/github/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_4.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_3_retry</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>na, łóżku, i, nasłuchiwał</t>
+          <t>rozwiązaniem, taki, jest</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>podstawowego, problemu</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -761,31 +757,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:/github/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_4.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_3_retry</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>na, łóżku, i, nasłuchiwał</t>
+          <t>rozwiązaniem, taki, jest</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>podstawowego, problemu</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -794,31 +790,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:/github/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_4.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>na, łóżku, i, nasłuchiwał</t>
+          <t>zasady, zastosowania, Przykładem, zachowania</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0, /, 4</t>
+          <t>pięknym</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -827,31 +823,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:/github/UwuBis-soundhelper/audio\audio2.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Panno, święta, co, jasnej, bronisz</t>
+          <t>pięknym</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>zasady, zachowania, Przykładem, zastosowania</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>1/5</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -860,31 +856,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D:/github/UwuBis-soundhelper/audio/demony\31wiele_demonow_czesc_3.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>zasady, zastosowania, pięknym, Przykładem, zachowania</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -893,31 +885,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>audio1.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Litwo, ojczyzno, moja, ty, jesteś</t>
+          <t>zastosowania, Przykładem, zachowania</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>zasady, pięknym</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -926,31 +918,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_5.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+          <t>zasady, Przykładem, zastosowania</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>pięknym, zachowania</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -959,31 +951,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_4.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>Przykładem, pięknym, zastosowania, zachowania, zasady</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -992,31 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_6.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>niespokojnego, pokrzywą, siostry, bez, ładnego</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0, /, 5</t>
+          <t>zastosowania, Przykładem, zasady, pięknym, zachowania</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1025,18 +1009,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_4.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nocną, najprzód, lampkę, siadała, zapalała</t>
+          <t>zastosowania, Przykładem, zasady, pięknym, zachowania</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1054,18 +1038,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_3.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>znikała, dwie, krótko, na</t>
+          <t>zastosowania, Przykładem, zasady, zachowania, pięknym</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1083,23 +1067,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_5.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ojca, chrapania, oprócz, śpiew, neurotyzm</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zasady, zachowania, zastosowania</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1112,27 +1096,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_3.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>na, krótko</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>znikała, dwie</t>
+          <t>pięknym, zasady, zachowania, Przykładem, zastosowania</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2/5</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1145,27 +1125,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>13, w, rozdział, końcu</t>
-        </is>
-      </c>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>jest, rakietowy, pędu, napęd</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1174,27 +1154,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_3.wav</t>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>dwie, na</t>
+          <t>taki, rozwiązaniem, jest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>znikała, krótko</t>
+          <t>problemu, podstawowego</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1207,22 +1187,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>szydło, z, worka, Ola, na</t>
+          <t>jak, wprawić, Ciało, w, ruch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>na, Ola</t>
+          <t>jak, wprawić</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>worka, szydło, z</t>
+          <t>ruch, Ciało, w</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1240,31 +1220,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>końcu, w</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13, rozdział</t>
-        </is>
-      </c>
+          <t>zachowania, Przykładem, zasady, zastosowania, pięknym</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1273,31 +1249,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>końcu, w</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>13, rozdział</t>
-        </is>
-      </c>
+          <t>jest, rakietowy, napęd, pędu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1306,31 +1278,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>jest, podstawowego, rozwiązaniem</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>końcu, rozdział, w</t>
+          <t>problemu, taki</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1/4</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1339,31 +1311,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>końcu, w</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13, rozdział</t>
+          <t>zachowania, zasady, zastosowania, pięknym, Przykładem</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1372,31 +1340,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>końcu, w</t>
+          <t>jest, rakietowy, napęd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13, rozdział</t>
+          <t>pędu</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1405,27 +1373,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>szydło, z, worka, Ola, na</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>zasady, Przykładem, zastosowania</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>worka, szydło, Ola, na</t>
+          <t>zachowania, pięknym</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1438,31 +1406,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>w, końcu</t>
+          <t>zachowania, Przykładem, zasady, zastosowania</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13, rozdział</t>
+          <t>pięknym</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1471,31 +1439,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Przykładem, zastosowania, pięknym</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>w, końcu, rozdział</t>
+          <t>zachowania, zasady</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1/4</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1504,27 +1472,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>zachowania, Przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13, w, końcu, rozdział</t>
+          <t>pięknym</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1533,27 +1505,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13, w, końcu, rozdział</t>
-        </is>
-      </c>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>pięknym, zachowania, Przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1562,31 +1534,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>rozdział, 13, w, końcu</t>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13, rozdział</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>w, końcu</t>
-        </is>
-      </c>
+          <t>jest, rakietowy, pędu, napęd</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1595,27 +1563,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ojca</t>
+          <t>rozwiązaniem, taki, jest</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>neurotyzm, oprócz, chrapania, śpiew</t>
+          <t>podstawowego, problemu</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1628,27 +1596,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+          <t>TAYLOR__Mechanika.wav_segment_4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+          <t>jak, wprawić, Ciało, w, ruch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>zapalała</t>
+          <t>jak, wprawić</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>lampkę, najprzód, siadała, nocną</t>
+          <t>ruch, w, Ciało</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1661,27 +1629,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
+          <t>lesmian1.wav_segment_1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
+          <t>tu, jestem, w, mrokach, ziemi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ojca</t>
+          <t>jestem, w, ziemi, mrokach</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>neurotyzm, śpiew, chrapania, oprócz</t>
+          <t>tu</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1694,23 +1662,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+          <t>lesmian1.wav_segment_2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>jestem, tam, jeszcze, w, szumie</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>tam, jestem, jeszcze</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>lampkę, najprzód, zapalała, nocną, siadała</t>
+          <t>w, szumie</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1723,589 +1695,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
+          <t>lesmian1.wav_segment_3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>gwiazd, gdzie, nie, cały, mgle</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>gdzie, gwiazd</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>znikała, na, krótko, dwie</t>
+          <t>nie, cały, mgle</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/5</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>siadała, najprzód, lampkę, zapalała, nocną</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_4.wav_segment_1_retry</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>siadała, najprzód, lampkę, zapalała, nocną</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>krótko, znikała, na, dwie</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_1.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>rozdział, 13, w, końcu</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>rozdział</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>końcu, 13, w</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1/4</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>śpiew, chrapania, ojca, oprócz, neurotyzm</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_5.wav_segment_1_retry</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>śpiew, chrapania, ojca, oprócz, neurotyzm</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>lampkę, najprzód, siadała, zapalała, nocną</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_4.wav_segment_1_retry</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>lampkę, najprzód, siadała, zapalała, nocną</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>dwie, na</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>znikała, krótko</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1_retry</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>dwie, znikała, na, krótko</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1_retry</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>dwie</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>szydło, z, worka, Ola, na</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Ola, szydło, na, worka, z</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>na, dwie, krótko, znikała</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>dwie, znikała, krótko, na</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>szydło, z, worka, Ola, na</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>worka, z, na, szydło, Ola</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_2.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>szydło, z, worka, Ola, na</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>na, worka, Ola, szydło, z</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_3.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>znikała, na, krótko, na, dwie</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>dwie, znikała, krótko, na</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_5.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>ojca, oprócz, śpiew, chrapania, neurotyzm</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>31wiele_demonow_czesc_5.wav_segment_1_retry</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>oprócz, śpiew, chrapania, ojca, neurotyzm</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>ojca, oprócz, śpiew, chrapania, neurotyzm</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
         <v>5</v>
       </c>
     </row>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,6 +1722,225 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>zasady, Przykładem, zachowania, zastosowania, pięknym</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>zasady, Przykładem, zachowania, zastosowania, pięknym</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>pędu, jest</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>audio2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Panno, święta, co, jasnej, bronisz</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>co, święta</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Panno, jasnej, bronisz</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>zasady, Przykładem, zastosowania, zachowania</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>jest, napęd, rakietowy, pędu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>jest, rozwiązaniem</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>problemu, podstawowego, taki</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,7 +1739,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>zasady, Przykładem, zachowania, zastosowania, pięknym</t>
+          <t>zastosowania, zasady, zachowania, pięknym, Przykładem</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1757,187 +1757,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
+          <t>0032 wiele_demonow_czesc_9.wav_segment_1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+          <t>wszystko, największe, zbrodnie, zabicie, matki</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>zasady, Przykładem, zachowania, zastosowania, pięknym</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>największe, zabicie, wszystko, zbrodnie</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>matki</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TAYLOR__Mechanika.wav_segment_2</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>pędu, jest, napęd, rakietowy, napęd</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>rakietowy, napęd</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>pędu, jest</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>audio2.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Panno, święta, co, jasnej, bronisz</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>co, święta</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Panno, jasnej, bronisz</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TAYLOR__Mechanika.wav_segment_1</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>zasady, Przykładem, zastosowania, zachowania</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>pięknym</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TAYLOR__Mechanika.wav_segment_2</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>pędu, jest, napęd, rakietowy, napęd</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>jest, napęd, rakietowy, pędu</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TAYLOR__Mechanika.wav_segment_3</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>jest, rozwiązaniem</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>problemu, podstawowego, taki</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
         <v>5</v>
       </c>
     </row>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,6 +1784,734 @@
         <v>5</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>zachowania, Przykładem, pięknym, zasady, zastosowania</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>zachowania, Przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>pędu, napęd, jest, rakietowy</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Przykładem, zasady, zachowania, zastosowania</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>jest, napęd</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>pędu, rakietowy</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2_retry</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>pędu</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>audio2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Panno, święta, co, jasnej, bronisz</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Panno, święta, jasnej, bronisz, co</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0032 wiele_demonow_czesc_5.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Zresztą, biorę, to, pod, uwagę</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>biorę, Zresztą, pod, to, uwagę</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Przykładem, zasady, zachowania, zastosowania, pięknym</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>zastosowania, zasady, pięknym, Przykładem, zachowania</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>zasady, pięknym, zachowania, zastosowania, Przykładem</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>zachowania, zasady, zastosowania, Przykładem</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>zastosowania, zasady, Przykładem, pięknym, zachowania</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>zastosowania, pięknym, Przykładem, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>zasady, zachowania, Przykładem, zastosowania</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>jest, napęd</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>pędu, rakietowy</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>taki, jest, rozwiązaniem, podstawowego, problemu</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>problemu, rozwiązaniem, taki, jest, podstawowego</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_4</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jak, wprawić, Ciało, w, ruch</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>jak, wprawić, Ciało, ruch, w</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Przykładem, pięknym, zastosowania, zachowania, zasady</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>pędu, jest, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>zachowania, zasady, pięknym, zastosowania, Przykładem</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>zastosowania, zachowania, zasady, Przykładem, pięknym</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,6 +2512,610 @@
         <v>5</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>pięknym, zastosowania, zasady, Przykładem, zachowania</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zachowania, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>napęd, rakietowy, jest, pędu</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>nocną, siadała, lampkę, zapalała, najprzód</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>31wiele_demonow_czesc_4.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>najprzód, zapalała, lampkę, nocną, siadała</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>nocną, siadała, lampkę, zapalała, najprzód</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>pięknym, zachowania, zasady, Przykładem, zastosowania</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>zasady, zachowania, zastosowania, Przykładem</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1_retry</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>zasady, zachowania, zastosowania</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>jest, rakietowy, pędu, napęd</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2_retry</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>pędu, jest, napęd, rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>rakietowy, napęd</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>jest, pędu</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zasady, zachowania, zastosowania</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zastosowania, zasady, zachowania</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>pięknym, Przykładem, zasady, zachowania, zastosowania</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>jestem, tu, mrokach, w, ziemi</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>jestem, tu, mrokach, w, ziemi</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze, w, sumie</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>sumie, w</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>audio2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>panno, święta, co, jasnej, bronisz</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>bronisz, jasnej, panno, co, święta</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>do, przykładem, zastosowania, pięknym, zasady</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>do, pięknym</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3116,6 +3116,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,6 +3149,1155 @@
         <v>5</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze, w, sumie</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>sumie, w</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze, w, sumie</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>w, sumie</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>tu, jestem, w, mrokach, ziemi</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>lesmian1.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze, w, sumie</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>jestem, tam, jeszcze</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>sumie, w</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>napęd, taki, jest, rozwiązaniem, podstawowego</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>napęd, taki, jest, rozwiązaniem</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>podstawowego</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_4</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>problemu, jak, wprawić, ciało, w</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>problemu, jak, w</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ciało, wprawić</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>audio2.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>panno, święta, co, jasnej, bronisz</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>panno, święta, co, bronisz</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>jasnej</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>napęd, taki, jest, rozwiązaniem, podstawowego</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>napęd, taki, jest, rozwiązaniem</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>podstawowego</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_4</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>problemu, jak, wprawić, ciało, w</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>problemu, jak, w</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ciało, wprawić</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_3</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>napęd, taki, jest, rozwiązaniem, podstawowego</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>jest, rozwiązaniem, podstawowego</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>napęd, taki</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_4</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>problemu, jak, wprawić, ciało, w</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>problemu, jak, wprawić, ciało</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ruch, jeśli, nie, ma, żadnego</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ruch, jeśli, nie, ma, żadnego</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>do, zasady, pięknym, przykładem, zastosowania</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_2</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>pędu, jest, rakietowy, zachowania, napęd</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>przykładem</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>przykładem</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>przykładem</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>zasady, do, zachowania, pędu, jest</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>zasady</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>zachowania, jest, pędu, do</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>przykładem</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>przykładem</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>aby, lepiej, zrozumieć, tę</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>tę, aby, zrozumieć, lepiej</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>napęd, taki, jest, rozwiązaniem, podstawowego</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>napęd, podstawowego, taki, jest, rozwiązaniem</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>zewnętrznego</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>zewnętrznego</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>rozwiązaniem, podstawowego, problemu</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>rozwiązaniem, problemu, podstawowego</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika16k.wav</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>przykładem</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>pięknym</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika16k.wav</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ruch, jeśli, nie, ma</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ruch, jeśli, nie, ma</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady, do</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>pięknym, przykładem, zastosowania, zasady</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki/test.xlsx
+++ b/wyniki/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4298,6 +4298,122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika16k.wav</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Piękne,  przykładem,  zastosowania,  zasady,  zachowania</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> zasady,  Piękne,  zachowania,  przykładem,  zastosowania</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika16k.wav</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Piękne,  przykładem,  zastosowania,  zasady,  zachowania,  pędu,  jest,  napęd,  rakietowy.,  Napęd,  taki,  jest,  rozwiązaniem,  podstawowego,  problemu,,  jak,  w,  prawidł,  ciało,  w,  ruch,,  jeśli,  nie,  ma,  żadnego,  zewnętrznego,  elementu,,  od,  którego,  mogłoby,  się,  ono,  odepchnąć,,  lub,  który,  mógłby,  ciało,  popchnąć.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> żadnego,  rozwiązaniem,  przykładem,  zasady,  od,  się,  zachowania,  rakietowy.,  nie,  prawidł,  zewnętrznego,  popchnąć.,  odepchnąć,,  zastosowania,  pędu,  ma,  jest,  elementu,,  lub,  taki,  mogłoby,  którego,  Piękne,  ruch,,  ono,  podstawowego,  jak,  jeśli,  w,  Napęd,  ciało,  który,  mógłby,  problemu,,  napęd</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0/38</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika16k.wav</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Piękne,  przykładem,  zastosowania,  zasady,  zachowania,  pędu,  jest,  napęd,  rakietowy.,  Napęd,  taki,  jest,  rozwiązaniem,  podstawowego,  problemu,,  jak,  w,  prawidł,  ciało,  w,  ruch,,  jeśli,  nie,  ma,  żadnego,  zewnętrznego,  elementu,,  od,  którego,  mogłoby,  się,  ono,  odepchnąć,,  lub,  który,  mógłby,  ciało,  popchnąć.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> żadnego,  rozwiązaniem,  przykładem,  zasady,  od,  się,  zachowania,  rakietowy.,  nie,  prawidł,  zewnętrznego,  popchnąć.,  odepchnąć,,  zastosowania,  pędu,  ma,  jest,  elementu,,  lub,  taki,  mogłoby,  którego,  Piękne,  ruch,,  ono,  podstawowego,  jak,  jeśli,  w,  Napęd,  ciało,  który,  mógłby,  problemu,,  napęd</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0/38</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika16k.wav</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> rozwiązaniem,  podstawowego</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> rozwiązaniem,  podstawowego</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
